--- a/2. preprocessing/output/nstore_stat_df.xlsx
+++ b/2. preprocessing/output/nstore_stat_df.xlsx
@@ -543,7 +543,7 @@
         <v>16811</v>
       </c>
       <c r="L2">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="M2">
         <v>90</v>
@@ -584,10 +584,10 @@
         <v>17399</v>
       </c>
       <c r="L3">
-        <v>12786</v>
+        <v>13238</v>
       </c>
       <c r="M3">
-        <v>1255</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -625,10 +625,10 @@
         <v>16426</v>
       </c>
       <c r="L4">
-        <v>3339</v>
+        <v>3350</v>
       </c>
       <c r="M4">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -666,10 +666,10 @@
         <v>16217</v>
       </c>
       <c r="L5">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="M5">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -707,10 +707,10 @@
         <v>18231</v>
       </c>
       <c r="L6">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="M6">
-        <v>2984</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -748,10 +748,10 @@
         <v>17850</v>
       </c>
       <c r="L7">
-        <v>2458</v>
+        <v>2432</v>
       </c>
       <c r="M7">
-        <v>2782</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -789,10 +789,10 @@
         <v>18025</v>
       </c>
       <c r="L8">
-        <v>1528</v>
+        <v>1509</v>
       </c>
       <c r="M8">
-        <v>2832</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -830,10 +830,10 @@
         <v>18030</v>
       </c>
       <c r="L9">
-        <v>3424</v>
+        <v>3373</v>
       </c>
       <c r="M9">
-        <v>4447</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -871,10 +871,10 @@
         <v>21891</v>
       </c>
       <c r="L10">
-        <v>9766</v>
+        <v>9662</v>
       </c>
       <c r="M10">
-        <v>16136</v>
+        <v>15964</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -912,10 +912,10 @@
         <v>16762</v>
       </c>
       <c r="L11">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="M11">
-        <v>571</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -953,10 +953,10 @@
         <v>18482</v>
       </c>
       <c r="L12">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="M12">
-        <v>1092</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -994,10 +994,10 @@
         <v>16451</v>
       </c>
       <c r="L13">
-        <v>2924</v>
+        <v>2944</v>
       </c>
       <c r="M13">
-        <v>2750</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1035,10 +1035,10 @@
         <v>16104</v>
       </c>
       <c r="L14">
-        <v>1795</v>
+        <v>1773</v>
       </c>
       <c r="M14">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1076,10 +1076,10 @@
         <v>16022</v>
       </c>
       <c r="L15">
-        <v>1829</v>
+        <v>1803</v>
       </c>
       <c r="M15">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1117,10 +1117,10 @@
         <v>16953</v>
       </c>
       <c r="L16">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="M16">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1158,10 +1158,10 @@
         <v>16037</v>
       </c>
       <c r="L17">
-        <v>2153</v>
+        <v>2188</v>
       </c>
       <c r="M17">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1199,10 +1199,10 @@
         <v>15802</v>
       </c>
       <c r="L18">
-        <v>1609</v>
+        <v>1626</v>
       </c>
       <c r="M18">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
